--- a/data/trans_bre/P19C05-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P19C05-Edad-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">

--- a/data/trans_bre/P19C05-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P19C05-Edad-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,06</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,08</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,87</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,1</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-33,09%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>36,54%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-22,87%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-7,07%</t>
         </is>
       </c>
     </row>
@@ -668,37 +668,37 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,23; 1,07</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,64; 3,62</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,59; 1,99</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,56; 2,4</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-76,62; 54,92</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-41,12; 194,65</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-70,35; 93,41</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,48</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,57</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,87</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,12</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>14,55%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>71,98%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-19,98%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-2,84%</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,8; 2,84</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,21; 5,82</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,22; 1,48</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,45; 3,0</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-38,89; 150,54</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,79; 228,45</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-57,31; 55,88</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-57,65; 129,45</t>
         </is>
       </c>
     </row>
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,67</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,48</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,47</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,58</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>24,96%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-6,23%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>59,32%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>14,92%</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,18; 5,15</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,55; 2,86</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,17; 5,15</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,84; 2,79</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,3; 104,41</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-38,18; 47,64</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,47; 170,89</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-32,82; 116,09</t>
         </is>
       </c>
     </row>
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,42</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,37</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,45</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,44</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-3,25%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>9,72%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-4,57%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-6,12%</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,38; 3,87</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,81; 5,91</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,32; 3,19</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,13; 2,21</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-33,87; 36,49</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,06; 52,24</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-34,3; 42,74</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-35,73; 43,34</t>
         </is>
       </c>
     </row>
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,91</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,07</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,1</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,05</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-7,32%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-7,91%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,55%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-17,79%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,05; 5,53</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,19; 5,17</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,22; 5,63</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,03; 1,06</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-30,39; 25,74</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-27,97; 22,43</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-30,63; 40,01</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-37,94; 10,48</t>
         </is>
       </c>
     </row>
@@ -1120,42 +1120,42 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,74</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,93</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,1</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,2</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>18,1%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>16,49%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,33%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>8,45%</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,39; 14,41</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,77; 13,26</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,04; 6,48</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,88; 7,0</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,72; 36,61</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,3; 34,53</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,38; 25,03</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-27,86; 27,53</t>
         </is>
       </c>
     </row>
@@ -1220,42 +1220,42 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,54</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,24</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,99</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,41</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>18,7%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>21,57%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>9,25%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>13,7%</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,46; 4,38</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,16; 5,11</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,8; 2,75</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,03; 2,84</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,27; 35,0</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,72; 37,39</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,01; 28,16</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,27; 29,28</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P19C05-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P19C05-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -635,7 +635,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-0,1</t>
+          <t>-0,12</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -655,7 +655,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-7,07%</t>
+          <t>-8,57%</t>
         </is>
       </c>
     </row>
@@ -683,7 +683,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-3,56; 2,4</t>
+          <t>-3,9; 2,42</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -710,7 +710,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -735,7 +735,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-0,12</t>
+          <t>-0,62</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-2,84%</t>
+          <t>-14,63%</t>
         </is>
       </c>
     </row>
@@ -783,7 +783,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-3,45; 3,0</t>
+          <t>-4,14; 2,48</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -803,14 +803,14 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-57,65; 129,45</t>
+          <t>-64,69; 97,37</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -835,7 +835,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,58</t>
+          <t>0,67</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -855,7 +855,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>14,92%</t>
+          <t>17,03%</t>
         </is>
       </c>
     </row>
@@ -883,7 +883,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,84; 2,79</t>
+          <t>-1,71; 2,95</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -903,14 +903,14 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-32,82; 116,09</t>
+          <t>-31,92; 115,73</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -935,7 +935,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-0,44</t>
+          <t>0,92</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -955,7 +955,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-6,12%</t>
+          <t>16,14%</t>
         </is>
       </c>
     </row>
@@ -983,7 +983,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-3,13; 2,21</t>
+          <t>-2,39; 5,03</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1003,14 +1003,14 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-35,73; 43,34</t>
+          <t>-28,89; 161,0</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1035,7 +1035,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-2,05</t>
+          <t>-1,99</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1055,7 +1055,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-17,79%</t>
+          <t>-17,29%</t>
         </is>
       </c>
     </row>
@@ -1083,7 +1083,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-5,03; 1,06</t>
+          <t>-4,91; 1,18</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1103,14 +1103,14 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-37,94; 10,48</t>
+          <t>-37,19; 12,08</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1120,42 +1120,42 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>7,74</t>
+          <t>2,86</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>6,93</t>
+          <t>2,27</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-0,1</t>
+          <t>2,24</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>2,2</t>
+          <t>-3,34</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>18,1%</t>
+          <t>7,35%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>16,49%</t>
+          <t>5,64%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-0,33%</t>
+          <t>8,86%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>8,45%</t>
+          <t>-17,96%</t>
         </is>
       </c>
     </row>
@@ -1168,49 +1168,49 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,39; 14,41</t>
+          <t>-5,27; 11,84</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,77; 13,26</t>
+          <t>-7,24; 10,4</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-6,04; 6,48</t>
+          <t>-5,89; 10,9</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-7,88; 7,0</t>
+          <t>-14,31; 5,93</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0,72; 36,61</t>
+          <t>-12,09; 35,97</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>1,3; 34,53</t>
+          <t>-15,83; 29,52</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-18,38; 25,03</t>
+          <t>-20,44; 53,55</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-27,86; 27,53</t>
+          <t>-69,07; 32,32</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1220,42 +1220,42 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>2,54</t>
+          <t>11,62</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>3,24</t>
+          <t>10,78</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,99</t>
+          <t>-4,33</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>1,41</t>
+          <t>4,0</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>18,7%</t>
+          <t>23,55%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>21,57%</t>
+          <t>24,16%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>9,25%</t>
+          <t>-12,18%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>13,7%</t>
+          <t>11,17%</t>
         </is>
       </c>
     </row>
@@ -1268,54 +1268,154 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>0,12; 23,33</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>0,99; 20,89</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>-14,41; 5,52</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>-1,99; 9,51</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>0,43; 56,69</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>1,97; 55,29</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>-35,68; 17,46</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>-4,94; 29,88</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>2,54</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>3,24</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>0,99</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>1,56</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>18,7%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>21,57%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>9,25%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>16,33%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
           <t>0,46; 4,38</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
+      <c r="D19" s="2" t="inlineStr">
         <is>
           <t>1,16; 5,11</t>
         </is>
       </c>
-      <c r="E17" s="2" t="inlineStr">
+      <c r="E19" s="2" t="inlineStr">
         <is>
           <t>-0,8; 2,75</t>
         </is>
       </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>-0,03; 2,84</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>-0,38; 3,87</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
         <is>
           <t>3,27; 35,0</t>
         </is>
       </c>
-      <c r="H17" s="2" t="inlineStr">
+      <c r="H19" s="2" t="inlineStr">
         <is>
           <t>7,72; 37,39</t>
         </is>
       </c>
-      <c r="I17" s="2" t="inlineStr">
+      <c r="I19" s="2" t="inlineStr">
         <is>
           <t>-7,01; 28,16</t>
         </is>
       </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>-0,27; 29,28</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>-3,22; 48,68</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="11">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1325,6 +1425,7 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_bre/P19C05-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P19C05-Edad-trans_bre.xlsx
@@ -668,37 +668,37 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-3,23; 1,07</t>
+          <t>-3,41; 1,12</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-1,64; 3,62</t>
+          <t>-1,46; 3,76</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-3,59; 1,99</t>
+          <t>-3,9; 1,54</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-3,9; 2,42</t>
+          <t>-3,29; 2,34</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-76,62; 54,92</t>
+          <t>-74,77; 71,94</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-41,12; 194,65</t>
+          <t>-40,28; 193,28</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-70,35; 93,41</t>
+          <t>-70,26; 69,9</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-1,8; 2,84</t>
+          <t>-2,04; 2,73</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,21; 5,82</t>
+          <t>-0,01; 4,83</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-3,22; 1,48</t>
+          <t>-3,5; 1,36</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-4,14; 2,48</t>
+          <t>-4,37; 2,27</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-38,89; 150,54</t>
+          <t>-43,16; 124,9</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-0,79; 228,45</t>
+          <t>-2,58; 184,92</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-57,31; 55,88</t>
+          <t>-58,45; 50,87</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-64,69; 97,37</t>
+          <t>-68,85; 80,71</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,18; 5,15</t>
+          <t>-1,75; 4,86</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-3,55; 2,86</t>
+          <t>-3,68; 2,75</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,17; 5,15</t>
+          <t>-0,18; 5,18</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,71; 2,95</t>
+          <t>-1,56; 2,85</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-15,3; 104,41</t>
+          <t>-21,82; 89,51</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-38,18; 47,64</t>
+          <t>-38,42; 48,7</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-5,47; 170,89</t>
+          <t>-4,26; 175,91</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-31,92; 115,73</t>
+          <t>-30,28; 112,0</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-5,38; 3,87</t>
+          <t>-5,13; 4,19</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-2,81; 5,91</t>
+          <t>-2,99; 5,92</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-4,32; 3,19</t>
+          <t>-4,1; 3,42</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-2,39; 5,03</t>
+          <t>-2,66; 4,7</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-33,87; 36,49</t>
+          <t>-32,61; 40,61</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-17,06; 52,24</t>
+          <t>-18,27; 52,05</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-34,3; 42,74</t>
+          <t>-35,02; 44,02</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-28,89; 161,0</t>
+          <t>-31,42; 172,15</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-9,05; 5,53</t>
+          <t>-8,95; 5,9</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-8,19; 5,17</t>
+          <t>-8,68; 4,34</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-6,22; 5,63</t>
+          <t>-6,27; 5,47</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-4,91; 1,18</t>
+          <t>-4,98; 1,39</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-30,39; 25,74</t>
+          <t>-29,23; 26,25</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-27,97; 22,43</t>
+          <t>-29,17; 19,42</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-30,63; 40,01</t>
+          <t>-29,75; 38,81</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-37,19; 12,08</t>
+          <t>-36,49; 16,12</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-5,27; 11,84</t>
+          <t>-5,72; 11,56</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-7,24; 10,4</t>
+          <t>-6,31; 10,52</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-5,89; 10,9</t>
+          <t>-5,92; 10,63</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-14,31; 5,93</t>
+          <t>-13,94; 6,02</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-12,09; 35,97</t>
+          <t>-12,48; 33,38</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-15,83; 29,52</t>
+          <t>-14,55; 29,47</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-20,44; 53,55</t>
+          <t>-19,53; 54,04</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-69,07; 32,32</t>
+          <t>-69,65; 33,96</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,12; 23,33</t>
+          <t>0,3; 22,16</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,99; 20,89</t>
+          <t>0,44; 20,58</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-14,41; 5,52</t>
+          <t>-13,54; 5,9</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-1,99; 9,51</t>
+          <t>-1,49; 9,43</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0,43; 56,69</t>
+          <t>0,28; 53,03</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>1,97; 55,29</t>
+          <t>1,13; 54,16</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-35,68; 17,46</t>
+          <t>-33,56; 20,56</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-4,94; 29,88</t>
+          <t>-3,67; 29,26</t>
         </is>
       </c>
     </row>
@@ -1368,42 +1368,42 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>0,46; 4,38</t>
+          <t>0,54; 4,66</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>1,16; 5,11</t>
+          <t>1,31; 5,12</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-0,8; 2,75</t>
+          <t>-0,66; 2,85</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-0,38; 3,87</t>
+          <t>-0,8; 3,67</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>3,27; 35,0</t>
+          <t>3,4; 36,38</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>7,72; 37,39</t>
+          <t>7,77; 36,56</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-7,01; 28,16</t>
+          <t>-5,61; 29,42</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-3,22; 48,68</t>
+          <t>-7,36; 45,11</t>
         </is>
       </c>
     </row>
